--- a/be/formatFile/between.xlsx
+++ b/be/formatFile/between.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doantn\be\formatFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F91066D-7337-4578-B5AA-8C522E6EB581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC88E47-2FBB-4551-88C6-4B0D470927D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{98793155-E6DC-4E07-AAC0-2E78EFBFF9AF}"/>
+    <workbookView xWindow="3765" yWindow="3315" windowWidth="21600" windowHeight="11385" xr2:uid="{98793155-E6DC-4E07-AAC0-2E78EFBFF9AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>Họ và tên</t>
   </si>
   <si>
-    <t xml:space="preserve">Điểm thành phần 1 </t>
-  </si>
-  <si>
     <t>Điểm thành phần 2</t>
+  </si>
+  <si>
+    <t>Điểm thành phần 1</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,10 +425,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
